--- a/list html page.xlsx
+++ b/list html page.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="1005">
   <si>
     <t>-/media</t>
   </si>
@@ -3040,7 +3040,16 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Task name date</t>
+    <t>Delete Ongbak</t>
+  </si>
+  <si>
+    <t>Delete Mobil app</t>
+  </si>
+  <si>
+    <t>Delete Register</t>
+  </si>
+  <si>
+    <t>Delete Serch</t>
   </si>
 </sst>
 </file>
@@ -3363,97 +3372,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B1001"/>
+  <dimension ref="A1:E1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1000</v>
       </c>
       <c r="B1" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/list html page.xlsx
+++ b/list html page.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="3151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="3151">
   <si>
     <t>Asian-Food-District.html</t>
   </si>
@@ -9835,8 +9835,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I3144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79:C79"/>
+    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
+      <selection activeCell="B158" sqref="B158:C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11211,8 +11211,12 @@
       <c r="A80" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -11224,8 +11228,12 @@
       <c r="A81" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -11237,8 +11245,12 @@
       <c r="A82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="B82" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -11250,8 +11262,12 @@
       <c r="A83" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -11263,8 +11279,12 @@
       <c r="A84" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -11276,8 +11296,12 @@
       <c r="A85" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -11289,8 +11313,12 @@
       <c r="A86" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -11302,8 +11330,12 @@
       <c r="A87" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="B87" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -11315,8 +11347,12 @@
       <c r="A88" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -11328,8 +11364,12 @@
       <c r="A89" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -11341,8 +11381,12 @@
       <c r="A90" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="B90" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -11354,8 +11398,12 @@
       <c r="A91" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="B91" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -11367,8 +11415,12 @@
       <c r="A92" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="B92" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -11380,8 +11432,12 @@
       <c r="A93" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="B93" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -11393,8 +11449,12 @@
       <c r="A94" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="B94" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -11406,8 +11466,12 @@
       <c r="A95" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="B95" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -11419,8 +11483,12 @@
       <c r="A96" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="B96" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -11432,8 +11500,12 @@
       <c r="A97" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="B97" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -11445,8 +11517,12 @@
       <c r="A98" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="B98" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -11458,8 +11534,12 @@
       <c r="A99" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="B99" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -11471,8 +11551,12 @@
       <c r="A100" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="B100" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -11484,8 +11568,12 @@
       <c r="A101" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="B101" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -11497,8 +11585,12 @@
       <c r="A102" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="B102" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -11510,8 +11602,12 @@
       <c r="A103" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="B103" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -11523,8 +11619,12 @@
       <c r="A104" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="B104" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -11536,8 +11636,12 @@
       <c r="A105" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="B105" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -11549,8 +11653,12 @@
       <c r="A106" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
+      <c r="B106" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -11562,8 +11670,12 @@
       <c r="A107" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="B107" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -11575,8 +11687,12 @@
       <c r="A108" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="B108" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -11588,8 +11704,12 @@
       <c r="A109" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="B109" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -11601,8 +11721,12 @@
       <c r="A110" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="B110" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -11614,8 +11738,12 @@
       <c r="A111" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -11627,8 +11755,12 @@
       <c r="A112" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="B112" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -11640,8 +11772,12 @@
       <c r="A113" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="B113" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -11653,8 +11789,12 @@
       <c r="A114" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="B114" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -11666,8 +11806,12 @@
       <c r="A115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="B115" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -11679,8 +11823,12 @@
       <c r="A116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="B116" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -11692,8 +11840,12 @@
       <c r="A117" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="B117" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -11705,8 +11857,12 @@
       <c r="A118" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="B118" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -11718,8 +11874,12 @@
       <c r="A119" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="B119" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -11731,8 +11891,12 @@
       <c r="A120" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="B120" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -11744,8 +11908,12 @@
       <c r="A121" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="B121" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -11757,8 +11925,12 @@
       <c r="A122" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="B122" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -11770,8 +11942,12 @@
       <c r="A123" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="B123" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -11783,8 +11959,12 @@
       <c r="A124" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="B124" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -11796,8 +11976,12 @@
       <c r="A125" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="B125" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -11809,8 +11993,12 @@
       <c r="A126" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="B126" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -11822,8 +12010,12 @@
       <c r="A127" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
+      <c r="B127" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -11835,8 +12027,12 @@
       <c r="A128" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="B128" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -11848,8 +12044,12 @@
       <c r="A129" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="B129" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -11861,8 +12061,12 @@
       <c r="A130" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="B130" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -11874,8 +12078,12 @@
       <c r="A131" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="B131" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -11887,8 +12095,12 @@
       <c r="A132" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="B132" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -11900,8 +12112,12 @@
       <c r="A133" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="B133" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -11913,8 +12129,12 @@
       <c r="A134" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="B134" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -11926,8 +12146,12 @@
       <c r="A135" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="B135" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -11939,8 +12163,12 @@
       <c r="A136" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="B136" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -11952,8 +12180,12 @@
       <c r="A137" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="B137" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -11965,8 +12197,12 @@
       <c r="A138" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="B138" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -11978,8 +12214,12 @@
       <c r="A139" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="B139" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -11991,8 +12231,12 @@
       <c r="A140" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="B140" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -12004,8 +12248,12 @@
       <c r="A141" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="B141" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -12017,8 +12265,12 @@
       <c r="A142" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="B142" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -12030,8 +12282,12 @@
       <c r="A143" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="B143" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -12043,8 +12299,12 @@
       <c r="A144" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="B144" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -12056,8 +12316,12 @@
       <c r="A145" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="B145" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -12069,8 +12333,12 @@
       <c r="A146" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="B146" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -12082,8 +12350,12 @@
       <c r="A147" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="B147" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -12095,8 +12367,12 @@
       <c r="A148" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="B148" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -12108,8 +12384,12 @@
       <c r="A149" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="B149" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -12121,8 +12401,12 @@
       <c r="A150" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="B150" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -12134,8 +12418,12 @@
       <c r="A151" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="B151" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -12147,8 +12435,12 @@
       <c r="A152" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="B152" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -12160,8 +12452,12 @@
       <c r="A153" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="B153" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -12173,8 +12469,12 @@
       <c r="A154" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="B154" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -12186,8 +12486,12 @@
       <c r="A155" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="B155" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -12199,8 +12503,12 @@
       <c r="A156" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="B156" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -12212,8 +12520,12 @@
       <c r="A157" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="B157" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -12225,8 +12537,12 @@
       <c r="A158" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="B158" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -12238,8 +12554,12 @@
       <c r="A159" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="B159" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
       <c r="F159" s="2"/>
@@ -12251,8 +12571,12 @@
       <c r="A160" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="B160" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -12264,8 +12588,12 @@
       <c r="A161" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="B161" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -12277,8 +12605,12 @@
       <c r="A162" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="B162" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -12290,8 +12622,12 @@
       <c r="A163" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="B163" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -12303,8 +12639,12 @@
       <c r="A164" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="B164" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -12316,8 +12656,12 @@
       <c r="A165" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="B165" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -12329,8 +12673,12 @@
       <c r="A166" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="B166" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -12342,8 +12690,12 @@
       <c r="A167" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="B167" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -12355,8 +12707,12 @@
       <c r="A168" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="B168" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -12368,8 +12724,12 @@
       <c r="A169" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="B169" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -12381,8 +12741,12 @@
       <c r="A170" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="B170" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>

--- a/list html page.xlsx
+++ b/list html page.xlsx
@@ -9,14 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Delete double file " sheetId="3" r:id="rId2"/>
+    <sheet name="Chang Mall Hours" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Delete double file '!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="sdc_website" localSheetId="1">'Delete double file '!$A$2:$A$25</definedName>
     <definedName name="sdc_website" localSheetId="0">Sheet1!$A$2:$A$1009</definedName>
+    <definedName name="sdc_website_1" localSheetId="1">'Delete double file '!$A$2:$A$25</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,11 +37,17 @@
   <connection id="1" name="Connection" type="4" refreshedVersion="5" background="1" saveData="1">
     <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://github.com/showdc/sdc-website"/>
   </connection>
+  <connection id="2" name="Connection1" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://github.com/showdc/sdc-website"/>
+  </connection>
+  <connection id="3" name="Connection2" type="4" refreshedVersion="5" background="1" saveData="1">
+    <webPr sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="https://github.com/showdc/sdc-website"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3490" uniqueCount="3151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="3159">
   <si>
     <t>Asian-Food-District.html</t>
   </si>
@@ -9489,6 +9500,30 @@
   </si>
   <si>
     <t>30/4/2018</t>
+  </si>
+  <si>
+    <t>Become-an-Affiliate.html</t>
+  </si>
+  <si>
+    <t>General-Enquiries.html</t>
+  </si>
+  <si>
+    <t>Host-an-Event.html</t>
+  </si>
+  <si>
+    <t>Retail-Enquiries.html</t>
+  </si>
+  <si>
+    <t>Unsubscribe.html</t>
+  </si>
+  <si>
+    <t>Name in /contact-us</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>2/052018</t>
   </si>
 </sst>
 </file>
@@ -9567,6 +9602,14 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sdc-website" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sdc-website_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sdc-website" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9835,8 +9878,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I3144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="B158" sqref="B158:C170"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12758,8 +12801,12 @@
       <c r="A171" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="B171" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -12771,8 +12818,12 @@
       <c r="A172" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="B172" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -12784,8 +12835,12 @@
       <c r="A173" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="B173" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -12797,8 +12852,12 @@
       <c r="A174" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="B174" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -12810,8 +12869,12 @@
       <c r="A175" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="B175" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -12823,8 +12886,12 @@
       <c r="A176" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
+      <c r="B176" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
       <c r="F176" s="2"/>
@@ -12836,8 +12903,12 @@
       <c r="A177" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="B177" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -12849,8 +12920,12 @@
       <c r="A178" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="B178" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -12862,8 +12937,12 @@
       <c r="A179" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="B179" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -12875,8 +12954,12 @@
       <c r="A180" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="B180" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -12888,8 +12971,12 @@
       <c r="A181" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="B181" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -12901,8 +12988,12 @@
       <c r="A182" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="B182" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -12914,8 +13005,12 @@
       <c r="A183" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="B183" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -12927,8 +13022,12 @@
       <c r="A184" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="B184" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -12940,8 +13039,12 @@
       <c r="A185" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="B185" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -12953,8 +13056,12 @@
       <c r="A186" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="B186" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -12966,8 +13073,12 @@
       <c r="A187" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="B187" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -12979,8 +13090,12 @@
       <c r="A188" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="B188" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -12992,8 +13107,12 @@
       <c r="A189" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="B189" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -13005,8 +13124,12 @@
       <c r="A190" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="B190" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -13018,8 +13141,12 @@
       <c r="A191" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="B191" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -13031,8 +13158,12 @@
       <c r="A192" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="B192" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -13044,8 +13175,12 @@
       <c r="A193" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="B193" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -13057,8 +13192,12 @@
       <c r="A194" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="B194" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -13070,8 +13209,12 @@
       <c r="A195" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="B195" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -13083,8 +13226,12 @@
       <c r="A196" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
+      <c r="B196" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
@@ -13096,8 +13243,12 @@
       <c r="A197" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
+      <c r="B197" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2"/>
       <c r="F197" s="2"/>
@@ -13109,8 +13260,12 @@
       <c r="A198" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
+      <c r="B198" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2"/>
       <c r="F198" s="2"/>
@@ -13122,8 +13277,12 @@
       <c r="A199" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="B199" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2"/>
       <c r="F199" s="2"/>
@@ -13135,8 +13294,12 @@
       <c r="A200" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
+      <c r="B200" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
@@ -13148,8 +13311,12 @@
       <c r="A201" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
+      <c r="B201" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
@@ -13161,8 +13328,12 @@
       <c r="A202" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
+      <c r="B202" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
       <c r="F202" s="2"/>
@@ -13174,8 +13345,12 @@
       <c r="A203" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
+      <c r="B203" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
@@ -13187,8 +13362,12 @@
       <c r="A204" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
+      <c r="B204" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2"/>
       <c r="F204" s="2"/>
@@ -13200,8 +13379,12 @@
       <c r="A205" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
+      <c r="B205" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2"/>
       <c r="F205" s="2"/>
@@ -13213,8 +13396,12 @@
       <c r="A206" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
+      <c r="B206" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2"/>
       <c r="F206" s="2"/>
@@ -13226,8 +13413,12 @@
       <c r="A207" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
+      <c r="B207" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
@@ -13239,8 +13430,12 @@
       <c r="A208" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
+      <c r="B208" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -13252,8 +13447,12 @@
       <c r="A209" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
+      <c r="B209" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
       <c r="F209" s="2"/>
@@ -13265,8 +13464,12 @@
       <c r="A210" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
+      <c r="B210" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2"/>
       <c r="F210" s="2"/>
@@ -13278,8 +13481,12 @@
       <c r="A211" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
+      <c r="B211" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2"/>
       <c r="F211" s="2"/>
@@ -13291,8 +13498,12 @@
       <c r="A212" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
+      <c r="B212" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2"/>
       <c r="F212" s="2"/>
@@ -13304,8 +13515,12 @@
       <c r="A213" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
+      <c r="B213" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2"/>
       <c r="F213" s="2"/>
@@ -13317,8 +13532,12 @@
       <c r="A214" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
+      <c r="B214" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
@@ -13330,8 +13549,12 @@
       <c r="A215" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
+      <c r="B215" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
@@ -13343,8 +13566,12 @@
       <c r="A216" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
+      <c r="B216" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
@@ -13356,8 +13583,12 @@
       <c r="A217" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
+      <c r="B217" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2"/>
       <c r="F217" s="2"/>
@@ -13369,8 +13600,12 @@
       <c r="A218" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
+      <c r="B218" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2"/>
       <c r="F218" s="2"/>
@@ -13382,8 +13617,12 @@
       <c r="A219" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
+      <c r="B219" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
@@ -13395,8 +13634,12 @@
       <c r="A220" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
+      <c r="B220" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
@@ -13408,8 +13651,12 @@
       <c r="A221" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
+      <c r="B221" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
@@ -13421,8 +13668,12 @@
       <c r="A222" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
+      <c r="B222" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D222" s="2"/>
       <c r="E222" s="2"/>
       <c r="F222" s="2"/>
@@ -13434,8 +13685,12 @@
       <c r="A223" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
+      <c r="B223" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
@@ -13447,8 +13702,12 @@
       <c r="A224" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
+      <c r="B224" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D224" s="2"/>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
@@ -13460,8 +13719,12 @@
       <c r="A225" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
+      <c r="B225" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2"/>
       <c r="F225" s="2"/>
@@ -13473,8 +13736,12 @@
       <c r="A226" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
+      <c r="B226" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2"/>
       <c r="F226" s="2"/>
@@ -13486,8 +13753,12 @@
       <c r="A227" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
+      <c r="B227" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D227" s="2"/>
       <c r="E227" s="2"/>
       <c r="F227" s="2"/>
@@ -13499,8 +13770,12 @@
       <c r="A228" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
+      <c r="B228" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D228" s="2"/>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
@@ -13512,8 +13787,12 @@
       <c r="A229" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
+      <c r="B229" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
@@ -13525,8 +13804,12 @@
       <c r="A230" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
+      <c r="B230" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
@@ -13538,8 +13821,12 @@
       <c r="A231" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
+      <c r="B231" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
@@ -13551,8 +13838,12 @@
       <c r="A232" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
+      <c r="B232" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
       <c r="F232" s="2"/>
@@ -13564,8 +13855,12 @@
       <c r="A233" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
+      <c r="B233" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
@@ -13577,8 +13872,12 @@
       <c r="A234" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
+      <c r="B234" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
@@ -13590,8 +13889,12 @@
       <c r="A235" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
+      <c r="B235" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
@@ -13603,8 +13906,12 @@
       <c r="A236" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
+      <c r="B236" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
@@ -13616,8 +13923,12 @@
       <c r="A237" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
+      <c r="B237" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
@@ -13629,8 +13940,12 @@
       <c r="A238" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
+      <c r="B238" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
@@ -13642,8 +13957,12 @@
       <c r="A239" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+      <c r="B239" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
       <c r="F239" s="2"/>
@@ -13655,8 +13974,12 @@
       <c r="A240" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
+      <c r="B240" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
@@ -13668,8 +13991,12 @@
       <c r="A241" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
+      <c r="B241" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
@@ -13681,8 +14008,12 @@
       <c r="A242" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
+      <c r="B242" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
       <c r="F242" s="2"/>
@@ -13694,8 +14025,12 @@
       <c r="A243" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
+      <c r="B243" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
       <c r="F243" s="2"/>
@@ -13707,8 +14042,12 @@
       <c r="A244" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
+      <c r="B244" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
       <c r="F244" s="2"/>
@@ -13720,8 +14059,12 @@
       <c r="A245" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
+      <c r="B245" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
@@ -13733,8 +14076,12 @@
       <c r="A246" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
+      <c r="B246" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
@@ -13746,8 +14093,12 @@
       <c r="A247" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
+      <c r="B247" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D247" s="2"/>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
@@ -13759,8 +14110,12 @@
       <c r="A248" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
+      <c r="B248" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D248" s="2"/>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
@@ -13772,8 +14127,12 @@
       <c r="A249" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
+      <c r="B249" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
@@ -13785,8 +14144,12 @@
       <c r="A250" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
+      <c r="B250" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
@@ -13798,8 +14161,12 @@
       <c r="A251" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
+      <c r="B251" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
@@ -13811,8 +14178,12 @@
       <c r="A252" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
+      <c r="B252" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D252" s="2"/>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
@@ -13824,8 +14195,12 @@
       <c r="A253" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
+      <c r="B253" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D253" s="2"/>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
@@ -13837,8 +14212,12 @@
       <c r="A254" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
+      <c r="B254" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D254" s="2"/>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
@@ -13850,8 +14229,12 @@
       <c r="A255" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
+      <c r="B255" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D255" s="2"/>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
@@ -13863,8 +14246,12 @@
       <c r="A256" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
+      <c r="B256" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D256" s="2"/>
       <c r="E256" s="2"/>
       <c r="F256" s="2"/>
@@ -13876,8 +14263,12 @@
       <c r="A257" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
+      <c r="B257" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
@@ -13889,8 +14280,12 @@
       <c r="A258" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
+      <c r="B258" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
@@ -13902,8 +14297,12 @@
       <c r="A259" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
+      <c r="B259" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D259" s="2"/>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
@@ -13915,8 +14314,12 @@
       <c r="A260" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
+      <c r="B260" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D260" s="2"/>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
@@ -13928,8 +14331,12 @@
       <c r="A261" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
+      <c r="B261" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D261" s="2"/>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
@@ -13941,8 +14348,12 @@
       <c r="A262" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
+      <c r="B262" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D262" s="2"/>
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
@@ -13954,8 +14365,12 @@
       <c r="A263" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
+      <c r="B263" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2"/>
       <c r="F263" s="2"/>
@@ -13967,8 +14382,12 @@
       <c r="A264" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
+      <c r="B264" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
       <c r="F264" s="2"/>
@@ -13980,8 +14399,12 @@
       <c r="A265" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
+      <c r="B265" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D265" s="2"/>
       <c r="E265" s="2"/>
       <c r="F265" s="2"/>
@@ -13993,8 +14416,12 @@
       <c r="A266" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
+      <c r="B266" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D266" s="2"/>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
@@ -14006,8 +14433,12 @@
       <c r="A267" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
+      <c r="B267" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D267" s="2"/>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
@@ -14019,8 +14450,12 @@
       <c r="A268" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
+      <c r="B268" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D268" s="2"/>
       <c r="E268" s="2"/>
       <c r="F268" s="2"/>
@@ -14032,8 +14467,12 @@
       <c r="A269" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
+      <c r="B269" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
@@ -14045,8 +14484,12 @@
       <c r="A270" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
+      <c r="B270" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D270" s="2"/>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
@@ -14058,8 +14501,12 @@
       <c r="A271" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
+      <c r="B271" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2"/>
       <c r="F271" s="2"/>
@@ -14071,8 +14518,12 @@
       <c r="A272" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
+      <c r="B272" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
@@ -14084,8 +14535,12 @@
       <c r="A273" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
+      <c r="B273" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
@@ -14097,8 +14552,12 @@
       <c r="A274" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
+      <c r="B274" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D274" s="2"/>
       <c r="E274" s="2"/>
       <c r="F274" s="2"/>
@@ -14110,8 +14569,12 @@
       <c r="A275" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
+      <c r="B275" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
@@ -14123,8 +14586,12 @@
       <c r="A276" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
+      <c r="B276" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
@@ -14136,8 +14603,12 @@
       <c r="A277" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
+      <c r="B277" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2"/>
       <c r="F277" s="2"/>
@@ -14149,8 +14620,12 @@
       <c r="A278" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
+      <c r="B278" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2"/>
       <c r="F278" s="2"/>
@@ -14162,8 +14637,12 @@
       <c r="A279" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
+      <c r="B279" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2"/>
       <c r="F279" s="2"/>
@@ -14175,8 +14654,12 @@
       <c r="A280" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
+      <c r="B280" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2"/>
       <c r="F280" s="2"/>
@@ -14188,8 +14671,12 @@
       <c r="A281" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
+      <c r="B281" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2"/>
@@ -14201,8 +14688,12 @@
       <c r="A282" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
+      <c r="B282" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D282" s="2"/>
       <c r="E282" s="2"/>
       <c r="F282" s="2"/>
@@ -14214,8 +14705,12 @@
       <c r="A283" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
+      <c r="B283" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D283" s="2"/>
       <c r="E283" s="2"/>
       <c r="F283" s="2"/>
@@ -14227,8 +14722,12 @@
       <c r="A284" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
+      <c r="B284" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2"/>
       <c r="F284" s="2"/>
@@ -14240,8 +14739,12 @@
       <c r="A285" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
+      <c r="B285" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D285" s="2"/>
       <c r="E285" s="2"/>
       <c r="F285" s="2"/>
@@ -14253,8 +14756,12 @@
       <c r="A286" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
+      <c r="B286" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D286" s="2"/>
       <c r="E286" s="2"/>
       <c r="F286" s="2"/>
@@ -14266,8 +14773,12 @@
       <c r="A287" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
+      <c r="B287" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>3150</v>
+      </c>
       <c r="D287" s="2"/>
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
@@ -34189,4 +34700,789 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A34:I40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>992</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>3143</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:I1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3153</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>3155</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/list html page.xlsx
+++ b/list html page.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3862" uniqueCount="3159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="3159">
   <si>
     <t>Asian-Food-District.html</t>
   </si>
@@ -9878,8 +9878,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I3144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView topLeftCell="A3107" workbookViewId="0">
+      <selection activeCell="A3130" sqref="A3130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34704,10 +34704,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A34:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35230,7 +35230,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>3138</v>
+        <v>3139</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3149</v>
@@ -35247,7 +35247,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3139</v>
+        <v>3146</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>3149</v>
@@ -35264,7 +35264,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>3140</v>
+        <v>3148</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3149</v>
@@ -35278,142 +35278,6 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>3141</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>3142</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>3143</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>3144</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>3145</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>3146</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>3147</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>3148</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>3150</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>

--- a/list html page.xlsx
+++ b/list html page.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\ShowDC-HTML-test\ShowDC-HTML\sdc-website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\www.showdc.co.th\sdc-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="3159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3869" uniqueCount="3159">
   <si>
     <t>Asian-Food-District.html</t>
   </si>
@@ -9529,7 +9529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9574,7 +9574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -9583,6 +9583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9605,11 +9606,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sdc-website_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sdc-website" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sdc-website" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sdc-website_1" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -34706,21 +34707,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -34766,8 +34767,12 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43222</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -34783,8 +34788,12 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="H3" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I3" s="4">
+        <v>43223</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -34800,8 +34809,12 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I4" s="4">
+        <v>43224</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -34817,8 +34830,12 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I5" s="4">
+        <v>43225</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -34834,8 +34851,12 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I6" s="4">
+        <v>43226</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -34851,8 +34872,12 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I7" s="4">
+        <v>43227</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -34868,8 +34893,12 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I8" s="4">
+        <v>43228</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -34885,8 +34914,12 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I9" s="4">
+        <v>43229</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -34902,8 +34935,12 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I10" s="4">
+        <v>43230</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -34919,8 +34956,12 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I11" s="4">
+        <v>43231</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -34936,8 +34977,12 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I12" s="4">
+        <v>43232</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -34953,8 +34998,12 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I13" s="4">
+        <v>43233</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -34970,8 +35019,12 @@
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I14" s="4">
+        <v>43234</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -34987,8 +35040,12 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I15" s="4">
+        <v>43235</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -35004,8 +35061,12 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I16" s="4">
+        <v>43236</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -35021,8 +35082,12 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I17" s="4">
+        <v>43237</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -35038,8 +35103,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I18" s="4">
+        <v>43238</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -35055,8 +35124,12 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I19" s="4">
+        <v>43239</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -35072,8 +35145,12 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I20" s="4">
+        <v>43240</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -35089,8 +35166,12 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I21" s="4">
+        <v>43241</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -35106,8 +35187,12 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I22" s="4">
+        <v>43242</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -35123,8 +35208,12 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I23" s="4">
+        <v>43243</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -35140,8 +35229,12 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I24" s="4">
+        <v>43244</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -35157,8 +35250,12 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I25" s="4">
+        <v>43245</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -35174,8 +35271,12 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I26" s="4">
+        <v>43246</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -35191,8 +35292,12 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I27" s="4">
+        <v>43247</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -35208,8 +35313,12 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I28" s="4">
+        <v>43248</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -35225,8 +35334,12 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I29" s="4">
+        <v>43249</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -35242,8 +35355,12 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I30" s="4">
+        <v>43250</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -35259,8 +35376,12 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I31" s="4">
+        <v>43251</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -35276,8 +35397,12 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="I32" s="4">
+        <v>43252</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1"/>

--- a/list html page.xlsx
+++ b/list html page.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Delete double file " sheetId="3" r:id="rId2"/>
     <sheet name="Chang Mall Hours" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Delete double file '!$A$1:$I$1</definedName>
@@ -34706,8 +34707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35349,4 +35350,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>